--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_4_20.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>921192.828115628</v>
+        <v>942346.5010809146</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189902.9539564199</v>
+        <v>189902.9539564204</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9102620.618728809</v>
+        <v>9102620.618728813</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8768468.324881045</v>
+        <v>8768468.324881043</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>140.4022687155557</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>67.36639160735591</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>99.34508049624301</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -862,7 +862,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.45289593214807</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>291.0835897485829</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>163.0915657041714</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
-        <v>156.5912426325231</v>
+        <v>156.591242632523</v>
       </c>
       <c r="T6" t="n">
         <v>196.8897623984489</v>
@@ -1032,7 +1032,7 @@
         <v>225.8879277888686</v>
       </c>
       <c r="V6" t="n">
-        <v>232.800587149425</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1060,22 +1060,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>156.2386663830953</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>150.1309169640881</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>9.27559683049698</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1333,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>408.8742649987725</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1430,10 +1430,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>321.2889091872192</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1467,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250752</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1534,22 +1534,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>128.4678304511568</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,10 +1607,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>53.06513659042586</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>128.1719908535464</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.3768222575565</v>
+        <v>18.37682225755627</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,10 +1783,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>323.991859522895</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>290.7979513441703</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2053,13 +2053,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>155.8860385675336</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>162.3364906735231</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2096,7 +2096,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>93.76239265371841</v>
+        <v>307.1861186321479</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2287,19 +2287,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>128.7835007017899</v>
+        <v>169.0167291702126</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>269.513456948084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>117.7790541487992</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>129.0246247964034</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2609,19 +2609,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>17.23430169187246</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>284.5615160058697</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2713,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>125.4417790696913</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,19 +2767,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2795,19 +2795,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>20.40829093103363</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>22.35153719005459</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,22 +2995,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>128.7835007017901</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3026,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>254.7848454013382</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>323.9918595228954</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,22 +3074,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3123,10 +3123,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3241,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>128.7835007017901</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
     </row>
     <row r="35">
@@ -3266,25 +3266,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.1716949156712</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>242.0561981984266</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3424,13 +3424,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>101.6257152931841</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>21.06378739764988</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>284.5615160058697</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>139.1296354848076</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,19 +3712,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>279.938790180569</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,28 +3785,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>221.8199080766637</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3895,31 +3895,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>4.44006580438074</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>112.5230191874438</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>104.5113366705975</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,10 +4022,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
         <v>216.4483203576578</v>
@@ -4037,13 +4037,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>267.604869047439</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4186,13 +4186,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>94.63926978364046</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>940.9219833362311</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C2" t="n">
-        <v>940.9219833362311</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D2" t="n">
-        <v>940.9219833362311</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E2" t="n">
-        <v>940.9219833362311</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F2" t="n">
-        <v>940.9219833362311</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G2" t="n">
-        <v>522.9581752344179</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H2" t="n">
-        <v>195.7634552704208</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036446</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843237</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1704.527073573123</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1331.061315312043</v>
+        <v>1241.668058649906</v>
       </c>
       <c r="Y2" t="n">
-        <v>940.9219833362311</v>
+        <v>851.5287266740938</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036446</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
         <v>99.59950625323012</v>
@@ -4510,28 +4510,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>389.0166762901907</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y4" t="n">
-        <v>99.59950625323012</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2090.781606227855</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="C5" t="n">
-        <v>1721.819089287443</v>
+        <v>1214.415758416388</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1214.415758416388</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>828.6275058181436</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>828.6275058181436</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4562,55 +4562,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2477.381446291977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2477.381446291977</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2477.381446291977</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V5" t="n">
-        <v>2477.381446291977</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W5" t="n">
-        <v>2477.381446291977</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X5" t="n">
-        <v>2477.381446291977</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y5" t="n">
-        <v>2477.381446291977</v>
+        <v>1583.3782753568</v>
       </c>
     </row>
     <row r="6">
@@ -4641,40 +4641,40 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="D7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="E7" t="n">
-        <v>709.5665374816297</v>
+        <v>184.027325963587</v>
       </c>
       <c r="F7" t="n">
-        <v>562.6765899837193</v>
+        <v>184.027325963587</v>
       </c>
       <c r="G7" t="n">
-        <v>393.6767897220517</v>
+        <v>184.027325963587</v>
       </c>
       <c r="H7" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005476</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>184.027325963587</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1905.140074719376</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="C8" t="n">
-        <v>1536.177557778964</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.911859172214</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="E8" t="n">
-        <v>792.1236065739693</v>
+        <v>1194.175505447095</v>
       </c>
       <c r="F8" t="n">
-        <v>381.1377017843616</v>
+        <v>783.1896006574873</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>365.2257925556742</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733123</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4835,19 +4835,19 @@
         <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2291.739914783498</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2291.739914783498</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>2291.739914783498</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>2291.739914783498</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4902,22 +4902,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>108.9687959810048</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>108.9687959810048</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V10" t="n">
-        <v>108.9687959810048</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>108.9687959810048</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1194.175505447095</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="C11" t="n">
-        <v>825.2129885066831</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="D11" t="n">
-        <v>466.9472898999326</v>
+        <v>1595.875667274026</v>
       </c>
       <c r="E11" t="n">
-        <v>466.9472898999326</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F11" t="n">
-        <v>466.9472898999326</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J11" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5078,13 +5078,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W11" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X11" t="n">
-        <v>1970.914677487028</v>
+        <v>2372.61483931396</v>
       </c>
       <c r="Y11" t="n">
-        <v>1580.775345511217</v>
+        <v>1982.475507338148</v>
       </c>
     </row>
     <row r="12">
@@ -5094,73 +5094,73 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673417</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>579.982325640618</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>365.6939024587807</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1273.280804219765</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C14" t="n">
-        <v>904.3182872793534</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="D14" t="n">
-        <v>850.7171392082162</v>
+        <v>1133.649772640951</v>
       </c>
       <c r="E14" t="n">
-        <v>464.928886609972</v>
+        <v>747.8615200427071</v>
       </c>
       <c r="F14" t="n">
-        <v>53.94298182036445</v>
+        <v>336.8756152530995</v>
       </c>
       <c r="G14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224071</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W14" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X14" t="n">
-        <v>2050.019976259699</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y14" t="n">
-        <v>1659.880644283887</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J15" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K15" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641996</v>
       </c>
       <c r="L15" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M15" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
         <v>2188.831293537797</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816297</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837193</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5434,7 +5434,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K16" t="n">
         <v>110.2451748866326</v>
@@ -5443,43 +5443,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1485.892406545185</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>1116.929889604773</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>758.6641909980228</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E17" t="n">
-        <v>758.6641909980228</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F17" t="n">
-        <v>347.6782862084153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733126</v>
@@ -5537,28 +5537,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1485.892406545185</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y17" t="n">
-        <v>1485.892406545185</v>
+        <v>1933.54400078133</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018223</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K19" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L19" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N19" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O19" t="n">
-        <v>2618.281896171278</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S19" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T19" t="n">
-        <v>2469.840903686824</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U19" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V19" t="n">
-        <v>2312.380258669114</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W19" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X19" t="n">
-        <v>2022.963088632153</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y19" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2090.6186503862</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C20" t="n">
-        <v>1721.656133445788</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D20" t="n">
-        <v>1363.390434839038</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="E20" t="n">
-        <v>977.6021822407936</v>
+        <v>1193.181703431126</v>
       </c>
       <c r="F20" t="n">
-        <v>566.6162774511861</v>
+        <v>782.1957986415189</v>
       </c>
       <c r="G20" t="n">
-        <v>148.652469349373</v>
+        <v>364.2319905397057</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N20" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O20" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P20" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U20" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2443.387305656314</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W20" t="n">
-        <v>2090.6186503862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X20" t="n">
-        <v>2090.6186503862</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y20" t="n">
-        <v>2090.6186503862</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J21" t="n">
         <v>129.2001442204943</v>
@@ -5841,13 +5841,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="C22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>2079.26528169842</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>2482.860667836385</v>
       </c>
       <c r="T22" t="n">
-        <v>2567.064746875001</v>
+        <v>2312.136698977584</v>
       </c>
       <c r="U22" t="n">
-        <v>2567.064746875001</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="V22" t="n">
-        <v>2312.380258669114</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="W22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="X22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
       <c r="Y22" t="n">
-        <v>2022.963088632153</v>
+        <v>2022.963088632152</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1491.915471247703</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="C23" t="n">
-        <v>1122.952954307291</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="D23" t="n">
-        <v>1122.952954307291</v>
+        <v>1303.858504048863</v>
       </c>
       <c r="E23" t="n">
-        <v>737.1647017090468</v>
+        <v>918.0702514506183</v>
       </c>
       <c r="F23" t="n">
-        <v>326.1787969194392</v>
+        <v>918.0702514506183</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1064433488052</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036446</v>
+        <v>172.9117233848081</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R23" t="n">
         <v>2642.120401548716</v>
@@ -6020,19 +6020,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U23" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V23" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W23" t="n">
-        <v>2642.120401548716</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X23" t="n">
-        <v>2268.654643287636</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y23" t="n">
-        <v>1878.515311311824</v>
+        <v>1662.124202655613</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N25" t="n">
-        <v>529.60403885025</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594902</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064343</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T25" t="n">
-        <v>598.044640063212</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U25" t="n">
-        <v>598.044640063212</v>
+        <v>2407.975480672791</v>
       </c>
       <c r="V25" t="n">
-        <v>343.3601518573251</v>
+        <v>2153.290992466904</v>
       </c>
       <c r="W25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1577.945354755378</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C26" t="n">
-        <v>1208.982837814967</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>850.7171392082162</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>464.928886609972</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>53.94298182036445</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036445</v>
@@ -6224,13 +6224,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6248,28 +6248,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2642.120401548716</v>
+        <v>2679.740705470876</v>
       </c>
       <c r="V26" t="n">
-        <v>2642.120401548716</v>
+        <v>2348.677818127306</v>
       </c>
       <c r="W26" t="n">
-        <v>2642.120401548716</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="X26" t="n">
-        <v>2354.684526795312</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="Y26" t="n">
-        <v>1964.5451948195</v>
+        <v>1995.909162857192</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
         <v>53.94298182036445</v>
@@ -6315,31 +6315,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N27" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O27" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P27" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>338.4002221349972</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H28" t="n">
         <v>53.94298182036445</v>
@@ -6415,19 +6415,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>598.0446400632119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V28" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.944160717209</v>
+        <v>1526.329725433337</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776797</v>
+        <v>1157.367208492925</v>
       </c>
       <c r="D29" t="n">
-        <v>1177.981643776797</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="E29" t="n">
-        <v>792.1933911785532</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F29" t="n">
-        <v>381.2074863889456</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H29" t="n">
         <v>53.94298182036445</v>
@@ -6461,13 +6461,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6488,25 +6488,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.53465573435</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.53465573435</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.53465573435</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.53465573435</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018222</v>
+        <v>2676.53465573435</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>2303.06889747327</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1912.929565497459</v>
       </c>
     </row>
     <row r="30">
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="C31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="D31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="E31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="F31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="G31" t="n">
         <v>53.94298182036445</v>
@@ -6643,28 +6643,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U31" t="n">
-        <v>598.0446400632119</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="V31" t="n">
-        <v>343.360151857325</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="W31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="X31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
       <c r="Y31" t="n">
-        <v>53.94298182036445</v>
+        <v>76.52029211334889</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1546.944160717209</v>
+        <v>464.928886609972</v>
       </c>
       <c r="C32" t="n">
-        <v>1177.981643776797</v>
+        <v>464.928886609972</v>
       </c>
       <c r="D32" t="n">
-        <v>1177.981643776797</v>
+        <v>464.928886609972</v>
       </c>
       <c r="E32" t="n">
-        <v>792.1933911785532</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F32" t="n">
-        <v>381.2074863889456</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G32" t="n">
         <v>53.94298182036445</v>
@@ -6701,10 +6701,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
@@ -6722,28 +6722,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U32" t="n">
-        <v>2697.149091018222</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V32" t="n">
-        <v>2697.149091018222</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W32" t="n">
-        <v>2697.149091018222</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X32" t="n">
-        <v>2323.683332757143</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y32" t="n">
-        <v>1933.544000781331</v>
+        <v>722.2873163082934</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
         <v>115.9856282673424</v>
@@ -6789,31 +6789,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6889,16 +6889,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>473.4444960005474</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>184.0273259635867</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y34" t="n">
         <v>53.94298182036445</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1422.14692331494</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.14692331494</v>
+        <v>412.2086804271149</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.14692331494</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533144</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q35" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2537.906568300563</v>
       </c>
       <c r="T35" t="n">
-        <v>2697.149091018223</v>
+        <v>2537.906568300563</v>
       </c>
       <c r="U35" t="n">
-        <v>2443.387305656314</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="V35" t="n">
-        <v>2198.886095354873</v>
+        <v>2284.144782938654</v>
       </c>
       <c r="W35" t="n">
-        <v>2198.886095354873</v>
+        <v>1931.37612766854</v>
       </c>
       <c r="X35" t="n">
-        <v>2198.886095354873</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y35" t="n">
-        <v>1808.746763379062</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O36" t="n">
         <v>2188.831293537797</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036446</v>
+        <v>304.5083130726405</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036446</v>
+        <v>156.5952194902474</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036446</v>
+        <v>156.5952194902474</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036446</v>
+        <v>156.5952194902474</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036446</v>
+        <v>156.5952194902474</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
@@ -7102,43 +7102,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N37" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>343.3601518573251</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W37" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X37" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036446</v>
+        <v>473.4444960005474</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1577.945354755379</v>
+        <v>2323.103882821189</v>
       </c>
       <c r="C38" t="n">
-        <v>1208.982837814967</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082163</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X38" t="n">
-        <v>2354.684526795312</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y38" t="n">
-        <v>1964.5451948195</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7227,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
         <v>1748.695370517453</v>
@@ -7272,28 +7272,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="C40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="D40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="E40" t="n">
-        <v>53.94298182036446</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="F40" t="n">
-        <v>53.94298182036446</v>
+        <v>352.2263397260238</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7339,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>598.044640063212</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>343.3601518573251</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W40" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y40" t="n">
-        <v>53.94298182036446</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1261.831893336434</v>
+        <v>1920.409918978288</v>
       </c>
       <c r="C41" t="n">
-        <v>892.8693763960225</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D41" t="n">
-        <v>534.603677789272</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E41" t="n">
-        <v>534.603677789272</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
-        <v>534.603677789272</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7430,31 +7430,31 @@
         <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1485.892406545185</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1261.831893336434</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y41" t="n">
-        <v>1261.831893336434</v>
+        <v>2307.00975904241</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7464,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204945</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K42" t="n">
-        <v>384.447464661593</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L42" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>546.4805193761946</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="C43" t="n">
-        <v>377.5443364482877</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="D43" t="n">
-        <v>227.427697035952</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="E43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>507.3364050629041</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7576,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y43" t="n">
-        <v>728.1289842064343</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1568.353113282533</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="C44" t="n">
-        <v>1568.353113282533</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D44" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E44" t="n">
-        <v>1210.087414675782</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F44" t="n">
-        <v>799.1015098861748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T44" t="n">
-        <v>2423.485734520779</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W44" t="n">
-        <v>1568.353113282533</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X44" t="n">
-        <v>1568.353113282533</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y44" t="n">
-        <v>1568.353113282533</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="45">
@@ -7701,40 +7701,40 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N45" t="n">
         <v>1748.695370517453</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7813,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>632.5337622027571</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>343.3601518573251</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,7 +8453,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711643</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,7 +8778,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>435.9238900028825</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K14" t="n">
         <v>324.1454125711647</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142017</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928322</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747218</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9489,7 +9489,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9893,7 +9893,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9963,13 +9963,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599052</v>
+        <v>212.3149906599044</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,7 +11385,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22556,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>11.5290475293055</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>302.3647090711131</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>56.82580834555213</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.6847473916799</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22781,22 +22781,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>122.7005802722121</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22829,22 +22829,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>11.32414710480012</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22948,22 +22948,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>27.38738814000484</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22999,10 +22999,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23021,25 +23021,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>167.6841063812618</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23075,19 +23075,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>177.6213415060468</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23197,10 +23197,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>125.6900249618412</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,25 +23221,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.909905022022485</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>151.9313162448613</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
@@ -23318,10 +23318,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>48.44219149124984</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>27.70305839063832</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23458,13 +23458,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>225.0351054580843</v>
@@ -23495,10 +23495,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>301.6179050302571</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>285.6121791672485</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
         <v>251.2241675082893</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890127</v>
+        <v>128.0571403890129</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R16" t="n">
         <v>146.6651919801579</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>30.69118209778793</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>122.9862186766247</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23908,10 +23908,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I19" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J19" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,7 +23932,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801579</v>
@@ -23941,13 +23941,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>130.3958356744442</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>89.80115265030489</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>230.1603801106388</v>
+        <v>16.73665413220925</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S20" t="n">
         <v>174.4157128089715</v>
@@ -24023,19 +24023,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24145,10 +24145,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J22" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,25 +24169,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>96.2516047562944</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24203,28 +24203,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>144.270713072711</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>34.15226209606209</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24260,19 +24260,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24382,10 +24382,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24415,16 +24415,16 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,7 +24440,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24497,19 +24497,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>233.9898658164169</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>85.16958467259929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24601,7 +24601,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24613,16 +24613,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>41.86802318935966</v>
       </c>
       <c r="H28" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24655,19 +24655,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24683,19 +24683,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>151.9313162448613</v>
@@ -24725,10 +24725,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>154.0074218779379</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>144.9582650689963</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,25 +24880,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,22 +24914,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>127.9489962621424</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>89.79231049789962</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
         <v>323.9227727643571</v>
@@ -24962,22 +24962,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25093,10 +25093,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J34" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25129,19 +25129,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>96.92615468724708</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>63.13204062090063</v>
       </c>
     </row>
     <row r="35">
@@ -25154,25 +25154,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,10 +25199,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>71.24401789330037</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -25211,13 +25211,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>85.69606027170832</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25330,10 +25330,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>33.33990649915418</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
@@ -25366,13 +25366,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>157.4983735401876</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>361.6700542658307</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25403,10 +25403,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25451,13 +25451,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>85.16958467259929</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25555,22 +25555,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>28.18016677424336</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J40" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25600,19 +25600,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,28 +25625,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>74.74425144011394</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>147.9111926018053</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,31 +25783,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>141.9938968421884</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>54.78678307160712</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,25 +25862,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>260.7615551004101</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25925,13 +25925,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>81.63609966997404</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26041,10 +26041,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26074,13 +26074,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3958356744438</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758313.1631806014</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806014</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758313.1631806012</v>
+        <v>758313.1631806013</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758313.1631806013</v>
+        <v>758313.1631806012</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="C2" t="n">
         <v>289152.6100157575</v>
       </c>
       <c r="D2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="E2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="F2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="G2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="I2" t="n">
         <v>289152.6100157574</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>289152.6100157575</v>
+      </c>
+      <c r="K2" t="n">
         <v>289152.6100157574</v>
-      </c>
-      <c r="I2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="J2" t="n">
-        <v>289152.6100157576</v>
-      </c>
-      <c r="K2" t="n">
-        <v>289152.6100157575</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157576</v>
       </c>
       <c r="M2" t="n">
-        <v>289152.6100157577</v>
+        <v>289152.6100157575</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157578</v>
       </c>
       <c r="O2" t="n">
-        <v>289152.6100157576</v>
+        <v>289152.6100157574</v>
       </c>
       <c r="P2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157574</v>
       </c>
     </row>
     <row r="3">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="C4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="D4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="E4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="F4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="G4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="H4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="I4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="J4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
       <c r="K4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="L4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="M4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="N4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="O4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>38473.06780370913</v>
+        <v>35944.74664026683</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
@@ -26485,10 +26485,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26500,16 +26500,16 @@
         <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-422147.4150659057</v>
+        <v>-419619.0939024633</v>
       </c>
       <c r="C6" t="n">
-        <v>167820.4641486389</v>
+        <v>170348.7853120812</v>
       </c>
       <c r="D6" t="n">
-        <v>167820.4641486389</v>
+        <v>170348.7853120813</v>
       </c>
       <c r="E6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="F6" t="n">
-        <v>201448.0641486388</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="G6" t="n">
-        <v>201448.0641486388</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="H6" t="n">
-        <v>201448.0641486388</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="I6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="J6" t="n">
-        <v>25024.84495604598</v>
+        <v>27553.16611948823</v>
       </c>
       <c r="K6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120811</v>
       </c>
       <c r="L6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120813</v>
       </c>
       <c r="M6" t="n">
-        <v>201448.0641486391</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="N6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120815</v>
       </c>
       <c r="O6" t="n">
-        <v>201448.064148639</v>
+        <v>203976.3853120812</v>
       </c>
       <c r="P6" t="n">
-        <v>201448.0641486389</v>
+        <v>203976.3853120812</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="H3" t="n">
         <v>377.7436642170866</v>
@@ -26790,25 +26790,25 @@
         <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="G4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="H4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="I4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="F4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="G4" t="n">
-        <v>674.2872727545556</v>
-      </c>
-      <c r="H4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="I4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26820,16 +26820,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
     </row>
   </sheetData>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L12" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N12" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N13" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K14" t="n">
         <v>193.1674799081577</v>
@@ -32008,25 +32008,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M15" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N15" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O15" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P15" t="n">
         <v>155.1528646479577</v>
@@ -32099,16 +32099,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N16" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H17" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J17" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K17" t="n">
         <v>193.1674799081577</v>
@@ -32245,25 +32245,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P17" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q17" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U17" t="n">
         <v>0.1214853995472036</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I18" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K18" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L18" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479577</v>
@@ -32336,16 +32336,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S18" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T18" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I19" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M19" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N19" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R19" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S19" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,13 +32461,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H20" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32485,22 +32485,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P20" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q20" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S20" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U20" t="n">
         <v>0.1214853995472036</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I21" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K21" t="n">
         <v>131.2017781649102</v>
@@ -32573,16 +32573,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S21" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T21" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,19 +32619,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I22" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J22" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32643,13 +32643,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R22" t="n">
         <v>30.62819939701163</v>
@@ -32658,7 +32658,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U22" t="n">
         <v>0.0371551145131561</v>
@@ -32698,13 +32698,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32722,22 +32722,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32810,16 +32810,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,19 +32856,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32880,13 +32880,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32895,7 +32895,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32959,22 +32959,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33047,16 +33047,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,19 +33093,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33117,13 +33117,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33132,7 +33132,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33172,13 +33172,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H29" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
@@ -33196,22 +33196,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P29" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q29" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S29" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U29" t="n">
         <v>0.1214853995472036</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I30" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K30" t="n">
         <v>131.2017781649102</v>
@@ -33284,16 +33284,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S30" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T30" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,19 +33330,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I31" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J31" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33354,13 +33354,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R31" t="n">
         <v>30.62819939701163</v>
@@ -33369,7 +33369,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U31" t="n">
         <v>0.0371551145131561</v>
@@ -33409,13 +33409,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33433,22 +33433,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33521,16 +33521,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,19 +33567,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33591,13 +33591,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33606,7 +33606,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33646,13 +33646,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33670,22 +33670,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33758,16 +33758,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,19 +33804,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33828,13 +33828,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33843,7 +33843,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33883,13 +33883,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33907,22 +33907,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33995,16 +33995,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34065,13 +34065,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34080,7 +34080,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34120,13 +34120,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34144,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34232,16 +34232,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34302,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34317,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34357,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34381,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34469,16 +34469,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34539,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34554,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343415</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
         <v>421.5361394435302</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N12" t="n">
-        <v>515.9012490932192</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
         <v>173.8110948137341</v>
@@ -35568,13 +35568,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N13" t="n">
         <v>148.370846145888</v>
@@ -35583,7 +35583,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181307</v>
       </c>
       <c r="K14" t="n">
         <v>297.2230414343419</v>
@@ -35659,10 +35659,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047529</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M15" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N15" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
@@ -35805,13 +35805,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M16" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N16" t="n">
         <v>148.370846145888</v>
@@ -35820,7 +35820,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35890,19 +35890,19 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M17" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060961</v>
       </c>
       <c r="N17" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P17" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O18" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P18" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,13 +36042,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M19" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N19" t="n">
         <v>148.370846145888</v>
@@ -36057,7 +36057,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K20" t="n">
         <v>297.2230414343419</v>
@@ -36133,10 +36133,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P20" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q20" t="n">
         <v>153.9975062898689</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
@@ -36209,16 +36209,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36294,7 +36294,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36370,10 +36370,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M24" t="n">
         <v>529.4413268262938</v>
@@ -36449,13 +36449,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36531,7 +36531,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36607,13 +36607,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P26" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q26" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36683,13 +36683,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q27" t="n">
         <v>173.8110948137341</v>
@@ -36753,7 +36753,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36768,7 +36768,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K29" t="n">
         <v>297.2230414343419</v>
@@ -36844,10 +36844,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P29" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q29" t="n">
         <v>153.9975062898689</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36923,7 +36923,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P30" t="n">
         <v>339.6412258735646</v>
@@ -36990,7 +36990,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37005,7 +37005,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37157,16 +37157,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37242,7 +37242,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181313</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K35" t="n">
         <v>297.2230414343419</v>
@@ -37318,10 +37318,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37397,7 +37397,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37479,7 +37479,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37549,16 +37549,16 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N38" t="n">
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37631,10 +37631,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37716,7 +37716,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37792,13 +37792,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.9975062898695</v>
+        <v>153.9975062898686</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
         <v>529.4413268262938</v>
@@ -37871,13 +37871,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37953,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.9372285181313</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
         <v>297.2230414343419</v>
@@ -38029,10 +38029,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L45" t="n">
         <v>408.7029475713857</v>
@@ -38105,10 +38105,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38190,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
